--- a/ConceptMap-R5-Subscription-elements-for-R4-Subscription.xlsx
+++ b/ConceptMap-R5-Subscription-elements-for-R4-Subscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.3641644-06:00</t>
+    <t>2026-02-09T22:05:44.2396868-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,18 +165,12 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>Basic.identifier</t>
-  </si>
-  <si>
     <t>Subscription.name</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name</t>
-  </si>
-  <si>
     <t>Subscription.status</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>topic</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.topic</t>
-  </si>
-  <si>
     <t>Subscription.contact</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>managingEntity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.managingEntity</t>
-  </si>
-  <si>
     <t>Subscription.reason</t>
   </si>
   <si>
@@ -237,54 +225,36 @@
     <t>filterBy</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy</t>
-  </si>
-  <si>
     <t>Subscription.filterBy.resourceType</t>
   </si>
   <si>
     <t>resourceType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy:resourceType</t>
-  </si>
-  <si>
     <t>Subscription.filterBy.filterParameter</t>
   </si>
   <si>
     <t>filterParameter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy:filterParameter</t>
-  </si>
-  <si>
     <t>Subscription.filterBy.comparator</t>
   </si>
   <si>
     <t>comparator</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy:comparator</t>
-  </si>
-  <si>
     <t>Subscription.filterBy.modifier</t>
   </si>
   <si>
     <t>modifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy:modifier</t>
-  </si>
-  <si>
     <t>Subscription.filterBy.value</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy:value</t>
-  </si>
-  <si>
     <t>Subscription.channelType</t>
   </si>
   <si>
@@ -309,39 +279,24 @@
     <t>parameter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter</t>
-  </si>
-  <si>
     <t>Subscription.parameter.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter:name</t>
-  </si>
-  <si>
     <t>Subscription.parameter.value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter:value</t>
-  </si>
-  <si>
     <t>Subscription.heartbeatPeriod</t>
   </si>
   <si>
     <t>heartbeatPeriod</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod</t>
-  </si>
-  <si>
     <t>Subscription.timeout</t>
   </si>
   <si>
     <t>timeout</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout</t>
-  </si>
-  <si>
     <t>Subscription.contentType</t>
   </si>
   <si>
@@ -357,16 +312,10 @@
     <t>content</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content</t>
-  </si>
-  <si>
     <t>Subscription.maxCount</t>
   </si>
   <si>
     <t>maxCount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount</t>
   </si>
 </sst>
 </file>
@@ -748,306 +697,306 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2"/>
     </row>

--- a/ConceptMap-R5-Subscription-elements-for-R4-Subscription.xlsx
+++ b/ConceptMap-R5-Subscription-elements-for-R4-Subscription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2396868-06:00</t>
+    <t>2026-02-17T14:42:27.5634206-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
